--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92970.76274370945</v>
+        <v>90532.2896439633</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>290.4167982937678</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657065</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.25382576108409</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>280.6069641540612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>281.9408634908496</v>
       </c>
       <c r="X5" t="n">
-        <v>164.3636138875691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>88.58584547962766</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312588</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>96.51881667305288</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>163.0860508096772</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.556204901370735</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>122.6725394254859</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>104.7777418077836</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>37.19933342822959</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890356</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>112.1382188876863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019807611472922</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>62.84300698292847</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>132.4736633694594</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5290632934499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>35.88641949135589</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>101.9268484343554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>56.04917322725558</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>213.7394996880296</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1941.127034633561</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1572.164517693149</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881545</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F2" t="n">
-        <v>417.124661698547</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2701.192632958763</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2327.726874697683</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2327.726874697683</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,37 +4422,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>890.3275858574932</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>890.3275858574932</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>890.3275858574932</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="U4" t="n">
-        <v>601.2247189831368</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>601.2247189831368</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>601.2247189831368</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X4" t="n">
-        <v>601.2247189831368</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1239.503030201924</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>870.5405132615124</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>512.2748146547618</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>126.4865620565176</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2016.242202241858</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.102870266046</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>376.7853475753374</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.9927684318073</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1032.061124352531</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1032.061124352531</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.6423967967187</v>
+        <v>218.0173361775773</v>
       </c>
       <c r="C10" t="n">
-        <v>360.6423967967187</v>
+        <v>218.0173361775773</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>218.0173361775773</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>70.10424259518419</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>70.10424259518419</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962293</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596507</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588486</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886962</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.015235706886</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596446</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181855</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>729.2011216450119</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="U10" t="n">
-        <v>796.9753498328453</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="V10" t="n">
-        <v>542.2908616269584</v>
+        <v>507.4345062145379</v>
       </c>
       <c r="W10" t="n">
-        <v>542.2908616269584</v>
+        <v>218.0173361775773</v>
       </c>
       <c r="X10" t="n">
-        <v>542.2908616269584</v>
+        <v>218.0173361775773</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.2908616269584</v>
+        <v>218.0173361775773</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,34 +5057,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2389.15589967238</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.624977674364</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5273,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722976</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,43 +5504,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,16 +5598,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913855</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.29660558528</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,52 +5726,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2253.988764961267</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570818</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967227</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>701.3802915967227</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>553.4671980143296</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>406.5772505164192</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>239.3811512312992</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1522.21291626627</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6394,40 +6394,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580256</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.10824923516</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258101</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2598873597757</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1702.079034721979</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>43.92933534737904</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>5.604874051551633</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.89546369611421</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>181.4067325814605</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>249.3236649083614</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23941,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.9994244361417</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4141550350963</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>77.45170586329542</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>153.7108110197847</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>45.44677382459479</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>111.1976478713723</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.44497470121456</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>989091.8491444926</v>
+        <v>989091.8491444929</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406862</v>
+        <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682529</v>
-      </c>
       <c r="G2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="H2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="H2" t="n">
-        <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
+        <v>343037.304868253</v>
+      </c>
+      <c r="K2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="L2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="K2" t="n">
-        <v>343037.3048682529</v>
-      </c>
-      <c r="L2" t="n">
-        <v>343037.3048682527</v>
-      </c>
       <c r="M2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.304868253</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51041.86039138739</v>
+        <v>51041.86039138747</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405247</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
         <v>15436.64000687967</v>
@@ -26439,16 +26439,16 @@
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687973</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="N4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1170464.670539687</v>
+        <v>-1170651.063928226</v>
       </c>
       <c r="C6" t="n">
-        <v>147412.0675268742</v>
+        <v>147412.0675268747</v>
       </c>
       <c r="D6" t="n">
-        <v>147412.0675268747</v>
+        <v>147412.0675268744</v>
       </c>
       <c r="E6" t="n">
-        <v>-98934.32676988946</v>
+        <v>-98969.0646953245</v>
       </c>
       <c r="F6" t="n">
-        <v>226478.1350374661</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="G6" t="n">
-        <v>226478.1350374658</v>
+        <v>226443.3971120305</v>
       </c>
       <c r="H6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120301</v>
       </c>
       <c r="I6" t="n">
-        <v>226478.1350374664</v>
+        <v>226443.3971120304</v>
       </c>
       <c r="J6" t="n">
-        <v>8946.932640188665</v>
+        <v>8912.194714753248</v>
       </c>
       <c r="K6" t="n">
-        <v>226478.135037466</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="L6" t="n">
-        <v>226478.1350374658</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="M6" t="n">
-        <v>141423.1071019543</v>
+        <v>141388.3691765189</v>
       </c>
       <c r="N6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120302</v>
       </c>
       <c r="O6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120301</v>
       </c>
       <c r="P6" t="n">
-        <v>226478.1350374659</v>
+        <v>226443.3971120302</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,22 +26960,22 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>58.82417042364523</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27470,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100.8256795669417</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>58.67832690896329</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>233.6275346404768</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>67.30010522656346</v>
       </c>
       <c r="X5" t="n">
-        <v>205.3674867908999</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>56.16916943469312</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,25 +27822,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449104</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>258.1642249476301</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.83191932994291</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>162.4696033576575</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>163.539298780127</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28548,7 +28548,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-2.260551021544925e-12</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29521,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>305.542772458138</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>728.6709493241812</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32318,34 +32318,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>502.5232631188754</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32503,7 +32503,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>332.1692388321073</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4402738502009</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
@@ -32576,7 +32576,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796262</v>
@@ -32643,7 +32643,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,13 +33032,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>483.3274636075166</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>147.4873481937412</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33734,19 +33734,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33904,7 +33904,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>316.6133175811573</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
-        <v>528.6300513467554</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034292</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.3038931996671</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106939</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014223</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.5609983721165</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>597.3292372408479</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>368.5488557045452</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902405</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="P21" t="n">
-        <v>29.46586643587065</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060455</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>340.7312191630721</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36762,7 +36762,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899029</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
         <v>373.2618997060454</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.64972152707456</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37382,19 +37382,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>174.479283659139</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
-        <v>397.2883392634221</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
